--- a/SED.xlsx
+++ b/SED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abailey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abailey\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Departure Date</t>
   </si>
@@ -51,13 +51,16 @@
   </si>
   <si>
     <t>Days on Static Platform</t>
+  </si>
+  <si>
+    <t>Seafarers Earnings Deduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +71,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF606060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,19 +116,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -135,16 +149,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F44C9-D87C-4862-BD41-7B774CC53ABD}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +475,12 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,40 +497,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43192</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43412</v>
-      </c>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3">
-        <f>DATEDIF(A2,B2,"D")-SUM(C2:D2)</f>
-        <v>220</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>IF(I6&gt;182,"Bad","Good")</f>
-        <v>Good</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Bad</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -536,7 +535,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -546,10 +545,10 @@
       </c>
       <c r="I6" s="1">
         <f>I5-I7</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -559,58 +558,62 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(E2:E76)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -701,7 +704,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{4F74C458-95D5-42ED-8B6B-467D7DA1F1A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>